--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -442,24 +455,24 @@
     <t>$AiAttackAttr</t>
   </si>
   <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <t>weapon0001</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
-    <t>步枪</t>
-  </si>
-  <si>
-    <t>weapon0001</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2,4]</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
-  </si>
-  <si>
     <t>shell0001</t>
   </si>
   <si>
@@ -478,27 +491,24 @@
     <t>beLoaded0011</t>
   </si>
   <si>
-    <t>0001_ai</t>
-  </si>
-  <si>
     <t>[3]</t>
   </si>
   <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>weapon0002</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
-    <t>霰弹枪</t>
-  </si>
-  <si>
-    <t>weapon0002</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[5,6]</t>
-  </si>
-  <si>
     <t>shell0002</t>
   </si>
   <si>
@@ -517,9 +527,6 @@
     <t>beLoaded0005</t>
   </si>
   <si>
-    <t>0002_ai</t>
-  </si>
-  <si>
     <t>0003</t>
   </si>
   <si>
@@ -544,235 +551,190 @@
     <t>0003_ai</t>
   </si>
   <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>weapon0004</t>
+  </si>
+  <si>
+    <t>[-8]</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
-    <t>刀</t>
-  </si>
-  <si>
-    <t>weapon0004</t>
-  </si>
-  <si>
-    <t>[-8]</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>0004_ai</t>
+    <t>狙击枪</t>
+  </si>
+  <si>
+    <t>weapon0005</t>
+  </si>
+  <si>
+    <t>[5,7]</t>
+  </si>
+  <si>
+    <t>shell0003</t>
+  </si>
+  <si>
+    <t>shooting0008</t>
+  </si>
+  <si>
+    <t>reloadBegin0009</t>
+  </si>
+  <si>
+    <t>beLoaded0007</t>
   </si>
   <si>
     <t>0005</t>
   </si>
   <si>
-    <t>狙击枪</t>
-  </si>
-  <si>
-    <t>weapon0005</t>
-  </si>
-  <si>
-    <t>[5,7]</t>
-  </si>
-  <si>
-    <t>shell0003</t>
-  </si>
-  <si>
-    <t>shooting0008</t>
-  </si>
-  <si>
-    <t>reloadBegin0009</t>
-  </si>
-  <si>
-    <t>beLoaded0007</t>
-  </si>
-  <si>
-    <t>0005_ai</t>
+    <t>冲锋枪</t>
+  </si>
+  <si>
+    <t>weapon0006</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>shooting0002</t>
+  </si>
+  <si>
+    <t>reloadBegin0005</t>
+  </si>
+  <si>
+    <t>beLoaded0016</t>
+  </si>
+  <si>
+    <t>汤姆逊冲锋枪</t>
+  </si>
+  <si>
+    <t>weapon0007</t>
+  </si>
+  <si>
+    <t>shooting0007</t>
+  </si>
+  <si>
+    <t>reloadBegin0006</t>
+  </si>
+  <si>
+    <t>beLoaded0017</t>
   </si>
   <si>
     <t>0006</t>
   </si>
   <si>
-    <t>冲锋枪</t>
-  </si>
-  <si>
-    <t>weapon0006</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>shooting0002</t>
-  </si>
-  <si>
-    <t>reloadBegin0005</t>
-  </si>
-  <si>
-    <t>beLoaded0016</t>
-  </si>
-  <si>
-    <t>0006_ai</t>
+    <t>激光手枪</t>
+  </si>
+  <si>
+    <t>weapon0008</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0002.tscn</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>shooting0010</t>
+  </si>
+  <si>
+    <t>reloadBegin0011</t>
+  </si>
+  <si>
+    <t>reloadFinish0003</t>
   </si>
   <si>
     <t>0007</t>
   </si>
   <si>
-    <t>汤姆逊冲锋枪</t>
-  </si>
-  <si>
-    <t>weapon0007</t>
-  </si>
-  <si>
-    <t>shooting0007</t>
-  </si>
-  <si>
-    <t>reloadBegin0006</t>
-  </si>
-  <si>
-    <t>beLoaded0017</t>
-  </si>
-  <si>
-    <t>0007_ai</t>
+    <t>榴弹发射器</t>
+  </si>
+  <si>
+    <t>weapon0009</t>
+  </si>
+  <si>
+    <t>shell0004</t>
+  </si>
+  <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
+    <t>reloadBegin0012</t>
+  </si>
+  <si>
+    <t>reloading0003</t>
+  </si>
+  <si>
+    <t>reloadFinish0004</t>
   </si>
   <si>
     <t>0008</t>
   </si>
   <si>
-    <t>激光手枪</t>
-  </si>
-  <si>
-    <t>weapon0008</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0002.tscn</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>shooting0010</t>
-  </si>
-  <si>
-    <t>reloadBegin0011</t>
-  </si>
-  <si>
-    <t>reloadFinish0003</t>
-  </si>
-  <si>
-    <t>0008_ai</t>
+    <t>M1型热能狙击枪</t>
+  </si>
+  <si>
+    <t>weapon0010</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>reloadBegin0013</t>
+  </si>
+  <si>
+    <t>reloadFinish0005</t>
   </si>
   <si>
     <t>0009</t>
   </si>
   <si>
-    <t>榴弹发射器</t>
-  </si>
-  <si>
-    <t>weapon0009</t>
-  </si>
-  <si>
-    <t>shell0004</t>
-  </si>
-  <si>
-    <t>shooting0011</t>
-  </si>
-  <si>
-    <t>reloadBegin0012</t>
-  </si>
-  <si>
-    <t>reloading0003</t>
-  </si>
-  <si>
-    <t>reloadFinish0004</t>
-  </si>
-  <si>
-    <t>0009_ai</t>
+    <t>weapon0011</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>weapon0013</t>
+  </si>
+  <si>
+    <t>shooting0013</t>
+  </si>
+  <si>
+    <t>reloadBegin0007</t>
+  </si>
+  <si>
+    <t>beLoaded0010</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>左轮</t>
+  </si>
+  <si>
+    <t>weapon0014</t>
+  </si>
+  <si>
+    <t>木质短弓</t>
+  </si>
+  <si>
+    <t>weapon0016</t>
+  </si>
+  <si>
+    <t>[-2,-2]</t>
   </si>
   <si>
     <t>0010</t>
-  </si>
-  <si>
-    <t>M1型热能狙击枪</t>
-  </si>
-  <si>
-    <t>weapon0010</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
-  </si>
-  <si>
-    <t>shooting0012</t>
-  </si>
-  <si>
-    <t>reloadBegin0013</t>
-  </si>
-  <si>
-    <t>reloadFinish0005</t>
-  </si>
-  <si>
-    <t>0010_ai</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>weapon0011</t>
-  </si>
-  <si>
-    <t>0011_ai</t>
-  </si>
-  <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>P90</t>
-  </si>
-  <si>
-    <t>weapon0013</t>
-  </si>
-  <si>
-    <t>shooting0013</t>
-  </si>
-  <si>
-    <t>reloadBegin0007</t>
-  </si>
-  <si>
-    <t>beLoaded0010</t>
-  </si>
-  <si>
-    <t>0013_ai</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>左轮</t>
-  </si>
-  <si>
-    <t>weapon0014</t>
-  </si>
-  <si>
-    <t>0014_ai</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
-    <t>木质短弓</t>
-  </si>
-  <si>
-    <t>weapon0016</t>
-  </si>
-  <si>
-    <t>[-2,-2]</t>
-  </si>
-  <si>
-    <t>0016_ai</t>
   </si>
 </sst>
 </file>
@@ -1775,69 +1737,69 @@
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AI23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM26" sqref="AM26"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.2211538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6826923076923" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1057692307692" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6634615384615" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1057692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2211538461538" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8942307692308" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1826923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1083333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.225" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1833333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.9038461538462" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7788461538462" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.0384615384615" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.2211538461538" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.4711538461538" style="1" customWidth="1"/>
-    <col min="17" max="17" width="34.2788461538462" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6442307692308" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6634615384615" style="1" customWidth="1"/>
-    <col min="20" max="21" width="25.0769230769231" style="1" customWidth="1"/>
-    <col min="22" max="22" width="25.2211538461538" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.6442307692308" style="1" customWidth="1"/>
-    <col min="24" max="24" width="24.8942307692308" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.3365384615385" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.3365384615385" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.9615384615385" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1057692307692" style="1" customWidth="1"/>
-    <col min="29" max="30" width="23.7788461538462" style="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5384615384615" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20.4711538461538" style="1" customWidth="1"/>
-    <col min="33" max="33" width="26.6538461538462" style="1" customWidth="1"/>
-    <col min="34" max="34" width="26.5096153846154" style="1" customWidth="1"/>
-    <col min="35" max="35" width="29.2019230769231" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.775" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.0416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.225" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.475" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34.275" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="20" max="21" width="25.075" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25.225" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.8916666666667" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.9583333333333" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="29" max="30" width="23.775" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.475" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.65" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.5083333333333" style="1" customWidth="1"/>
+    <col min="35" max="35" width="29.2" style="1" customWidth="1"/>
     <col min="36" max="36" width="30" style="1" customWidth="1"/>
-    <col min="37" max="37" width="34.4038461538462" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7788461538462" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34.4" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.775" style="1" customWidth="1"/>
     <col min="39" max="39" width="20" style="1" customWidth="1"/>
-    <col min="40" max="40" width="30.9807692307692" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.9711538461538" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23.7019230769231" style="1" customWidth="1"/>
-    <col min="43" max="44" width="27.6442307692308" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.7788461538462" style="2" customWidth="1"/>
-    <col min="46" max="49" width="27.7788461538462" style="1" customWidth="1"/>
-    <col min="50" max="52" width="24.0769230769231" style="1" customWidth="1"/>
-    <col min="53" max="53" width="21.1057692307692" style="1" customWidth="1"/>
-    <col min="54" max="54" width="22.0961538461538" style="1" customWidth="1"/>
-    <col min="55" max="55" width="29.7596153846154" style="1" customWidth="1"/>
-    <col min="56" max="56" width="20.1153846153846" style="1" customWidth="1"/>
-    <col min="57" max="57" width="25.2211538461538" style="1" customWidth="1"/>
-    <col min="58" max="58" width="23.7019230769231" style="1" customWidth="1"/>
-    <col min="59" max="59" width="37.9230769230769" style="1" customWidth="1"/>
-    <col min="60" max="60" width="22.5961538461538" style="1" customWidth="1"/>
-    <col min="61" max="61" width="30.4711538461538" style="1" customWidth="1"/>
-    <col min="62" max="62" width="31.8557692307692" style="1" customWidth="1"/>
-    <col min="63" max="63" width="32.4711538461538" style="3" customWidth="1"/>
+    <col min="40" max="40" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.975" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7" style="1" customWidth="1"/>
+    <col min="43" max="44" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.775" style="2" customWidth="1"/>
+    <col min="46" max="49" width="27.775" style="1" customWidth="1"/>
+    <col min="50" max="52" width="24.075" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="54" max="54" width="22.1" style="1" customWidth="1"/>
+    <col min="55" max="55" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="56" max="56" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="57" max="57" width="25.225" style="1" customWidth="1"/>
+    <col min="58" max="58" width="23.7" style="1" customWidth="1"/>
+    <col min="59" max="59" width="37.925" style="1" customWidth="1"/>
+    <col min="60" max="60" width="22.6" style="1" customWidth="1"/>
+    <col min="61" max="61" width="30.475" style="1" customWidth="1"/>
+    <col min="62" max="62" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="63" max="63" width="32.475" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:63">
@@ -2417,14 +2379,12 @@
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:63">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2487,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -2508,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -2532,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN4" s="1">
         <v>35</v>
@@ -2547,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="AR4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>144</v>
@@ -2591,11 +2551,9 @@
       <c r="BK4" s="7"/>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:63">
-      <c r="A5" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2658,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y5" s="1">
         <v>1.2</v>
@@ -2679,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -2703,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN5" s="1">
         <v>35</v>
@@ -2718,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="AR5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS5" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>144</v>
@@ -2760,18 +2718,16 @@
         <v>0.4</v>
       </c>
       <c r="BK5" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:63">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2834,7 +2790,7 @@
         <v>0.6</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -2855,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF6" s="1">
         <v>0</v>
@@ -2879,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AN6" s="1">
         <v>35</v>
@@ -2894,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AU6" s="1" t="b">
         <v>0</v>
@@ -2921,28 +2877,28 @@
         <v>146</v>
       </c>
       <c r="BA6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="BG6" s="1">
         <v>0.3</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BI6" s="1">
         <v>0</v>
@@ -2950,11 +2906,9 @@
       <c r="BK6" s="7"/>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:63">
-      <c r="A7" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -3017,7 +2971,7 @@
         <v>0.6</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="1">
         <v>1.4</v>
@@ -3038,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF7" s="1">
         <v>0</v>
@@ -3062,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AN7" s="1">
         <v>35</v>
@@ -3077,13 +3031,13 @@
         <v>1</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AU7" s="1" t="b">
         <v>0</v>
@@ -3104,45 +3058,45 @@
         <v>146</v>
       </c>
       <c r="BA7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="BG7" s="1">
         <v>0.3</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BI7" s="1">
         <v>0</v>
       </c>
       <c r="BK7" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:63">
       <c r="A8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3205,7 +3159,7 @@
         <v>0.05</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -3226,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -3250,7 +3204,7 @@
         <v>4</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN8" s="1">
         <v>35</v>
@@ -3265,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="AR8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS8" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>144</v>
@@ -3292,16 +3246,16 @@
         <v>146</v>
       </c>
       <c r="BA8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="BG8" s="1">
         <v>0.43</v>
@@ -3310,10 +3264,10 @@
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:63">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3376,7 +3330,7 @@
         <v>0.05</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="1">
         <v>0.55</v>
@@ -3397,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -3421,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN9" s="1">
         <v>35</v>
@@ -3436,10 +3390,10 @@
         <v>1</v>
       </c>
       <c r="AR9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS9" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>144</v>
@@ -3463,33 +3417,31 @@
         <v>146</v>
       </c>
       <c r="BA9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="BG9" s="1">
         <v>0.43</v>
       </c>
       <c r="BK9" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:63">
-      <c r="A10" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3552,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -3573,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -3597,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AN10" s="1">
         <v>24</v>
@@ -3613,7 +3565,7 @@
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AW10" s="1">
         <v>0</v>
@@ -3630,11 +3582,9 @@
       <c r="BK10" s="7"/>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:63">
-      <c r="A11" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3697,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y11" s="1">
         <v>2</v>
@@ -3718,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" s="1">
         <v>0</v>
@@ -3742,7 +3692,7 @@
         <v>7</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AN11" s="1">
         <v>24</v>
@@ -3758,7 +3708,7 @@
       </c>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AW11" s="1">
         <v>0</v>
@@ -3773,18 +3723,16 @@
         <v>146</v>
       </c>
       <c r="BK11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:63">
-      <c r="A12" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3847,7 +3795,7 @@
         <v>0.9</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y12" s="1">
         <v>0</v>
@@ -3868,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12" s="1">
         <v>0</v>
@@ -3892,7 +3840,7 @@
         <v>5</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AN12" s="1">
         <v>20</v>
@@ -3907,13 +3855,13 @@
         <v>1</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AU12" s="1" t="b">
         <v>0</v>
@@ -3934,22 +3882,22 @@
         <v>146</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="BC12" s="1">
         <v>0</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BG12" s="1">
         <v>1</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BI12" s="1">
         <v>0</v>
@@ -3957,11 +3905,9 @@
       <c r="BK12" s="7"/>
     </row>
     <row r="13" ht="57" customHeight="1" spans="1:63">
-      <c r="A13" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -4024,7 +3970,7 @@
         <v>0.9</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y13" s="1">
         <v>2.2</v>
@@ -4045,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -4069,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AN13" s="1">
         <v>20</v>
@@ -4084,13 +4030,13 @@
         <v>1</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AU13" s="1" t="b">
         <v>0</v>
@@ -4111,39 +4057,37 @@
         <v>146</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="BC13" s="1">
         <v>0</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BG13" s="1">
         <v>1</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BI13" s="1">
         <v>0</v>
       </c>
       <c r="BK13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:63">
-      <c r="A14" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4206,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -4227,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -4251,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN14" s="1">
         <v>35</v>
@@ -4266,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AT14" s="1" t="s">
         <v>144</v>
@@ -4293,16 +4237,16 @@
         <v>146</v>
       </c>
       <c r="BA14" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="BC14" s="1">
         <v>0</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BG14" s="1">
         <v>0.6</v>
@@ -4310,11 +4254,9 @@
       <c r="BK14" s="2"/>
     </row>
     <row r="15" ht="57" customHeight="1" spans="1:63">
-      <c r="A15" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4377,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y15" s="1">
         <v>1.4</v>
@@ -4398,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF15" s="1">
         <v>0</v>
@@ -4422,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN15" s="1">
         <v>35</v>
@@ -4437,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>144</v>
@@ -4464,33 +4406,31 @@
         <v>146</v>
       </c>
       <c r="BA15" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="BC15" s="1">
         <v>0</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BG15" s="1">
         <v>0.6</v>
       </c>
       <c r="BK15" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" ht="57" customHeight="1" spans="1:63">
-      <c r="A16" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4553,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -4574,7 +4514,7 @@
         <v>0.5</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF16" s="1">
         <v>0</v>
@@ -4598,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN16" s="1">
         <v>35</v>
@@ -4613,10 +4553,10 @@
         <v>1</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>144</v>
@@ -4640,16 +4580,16 @@
         <v>146</v>
       </c>
       <c r="BA16" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="BC16" s="1">
         <v>0.2</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="BG16" s="1">
         <v>0.65</v>
@@ -4657,11 +4597,9 @@
       <c r="BK16" s="2"/>
     </row>
     <row r="17" ht="57" customHeight="1" spans="1:63">
-      <c r="A17" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4745,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF17" s="1">
         <v>0</v>
@@ -4769,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN17" s="1">
         <v>35</v>
@@ -4784,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>144</v>
@@ -4811,33 +4749,31 @@
         <v>146</v>
       </c>
       <c r="BA17" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="BC17" s="1">
         <v>0.2</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="BG17" s="1">
         <v>0.65</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" ht="57" customHeight="1" spans="1:63">
-      <c r="A18" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4900,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y18" s="1">
         <v>0</v>
@@ -4921,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF18" s="1">
         <v>0</v>
@@ -4945,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN18" s="1">
         <v>25</v>
@@ -4960,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AV18" s="1">
         <v>1</v>
@@ -4978,16 +4914,16 @@
         <v>146</v>
       </c>
       <c r="BA18" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BC18" s="1">
         <v>0</v>
       </c>
       <c r="BF18" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="BG18" s="1">
         <v>0.8</v>
@@ -4995,11 +4931,9 @@
       <c r="BK18" s="2"/>
     </row>
     <row r="19" ht="57" customHeight="1" spans="1:63">
-      <c r="A19" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -5062,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y19" s="1">
         <v>1.8</v>
@@ -5083,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF19" s="1">
         <v>0</v>
@@ -5107,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN19" s="1">
         <v>25</v>
@@ -5122,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AV19" s="1">
         <v>1</v>
@@ -5140,33 +5074,31 @@
         <v>146</v>
       </c>
       <c r="BA19" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BB19" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BC19" s="1">
         <v>0</v>
       </c>
       <c r="BF19" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="BG19" s="1">
         <v>0.8</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" ht="57" customHeight="1" spans="1:63">
-      <c r="A20" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5229,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -5250,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF20" s="1">
         <v>0</v>
@@ -5274,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN20" s="1">
         <v>20</v>
@@ -5289,13 +5221,13 @@
         <v>3</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AU20" s="1" t="b">
         <v>1</v>
@@ -5316,22 +5248,22 @@
         <v>146</v>
       </c>
       <c r="BA20" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="BB20" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="BC20" s="1">
         <v>0.24</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BE20" s="1">
         <v>0.8</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="BG20" s="1">
         <v>0.26</v>
@@ -5339,11 +5271,9 @@
       <c r="BK20" s="2"/>
     </row>
     <row r="21" ht="57" customHeight="1" spans="1:63">
-      <c r="A21" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5406,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y21" s="1">
         <v>1.3</v>
@@ -5427,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" s="1">
         <v>0</v>
@@ -5451,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN21" s="1">
         <v>20</v>
@@ -5466,13 +5396,13 @@
         <v>3</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AU21" s="1" t="b">
         <v>1</v>
@@ -5493,39 +5423,37 @@
         <v>146</v>
       </c>
       <c r="BA21" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="BB21" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="BC21" s="1">
         <v>0.24</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BE21" s="1">
         <v>0.8</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="BG21" s="1">
         <v>0.26</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" ht="57" customHeight="1" spans="1:63">
-      <c r="A22" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5588,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -5609,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF22" s="1">
         <v>0</v>
@@ -5633,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN22" s="1">
         <v>25</v>
@@ -5648,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="AR22" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AV22" s="1">
         <v>1</v>
@@ -5666,16 +5594,16 @@
         <v>146</v>
       </c>
       <c r="BA22" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="BC22" s="1">
         <v>0</v>
       </c>
       <c r="BF22" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="BG22" s="1">
         <v>0.6</v>
@@ -5683,11 +5611,9 @@
       <c r="BK22" s="2"/>
     </row>
     <row r="23" ht="57" customHeight="1" spans="1:63">
-      <c r="A23" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5750,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y23" s="1">
         <v>1.5</v>
@@ -5771,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF23" s="1">
         <v>0</v>
@@ -5795,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AN23" s="1">
         <v>25</v>
@@ -5810,10 +5736,10 @@
         <v>1</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AV23" s="1">
         <v>1</v>
@@ -5828,33 +5754,31 @@
         <v>146</v>
       </c>
       <c r="BA23" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="BC23" s="1">
         <v>0</v>
       </c>
       <c r="BF23" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="BG23" s="1">
         <v>0.6</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" ht="57" customHeight="1" spans="1:63">
-      <c r="A24" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
@@ -5917,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y24" s="1">
         <v>0</v>
@@ -5938,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF24" s="1">
         <v>0</v>
@@ -5962,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN24" s="1">
         <v>35</v>
@@ -5977,10 +5901,10 @@
         <v>1</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AU24" s="1" t="b">
         <v>0</v>
@@ -5998,16 +5922,16 @@
         <v>146</v>
       </c>
       <c r="BA24" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="BC24" s="1">
         <v>0</v>
       </c>
       <c r="BF24" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BG24" s="1">
         <v>0.6</v>
@@ -6015,11 +5939,9 @@
       <c r="BK24" s="2"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:63">
-      <c r="A25" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -6082,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y25" s="1">
         <v>1.6</v>
@@ -6103,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF25" s="1">
         <v>0</v>
@@ -6127,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN25" s="1">
         <v>35</v>
@@ -6142,10 +6064,10 @@
         <v>1</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AU25" s="1" t="b">
         <v>0</v>
@@ -6163,33 +6085,31 @@
         <v>146</v>
       </c>
       <c r="BA25" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="BB25" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="BC25" s="1">
         <v>0</v>
       </c>
       <c r="BF25" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BG25" s="1">
         <v>0.6</v>
       </c>
       <c r="BK25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" ht="57" customHeight="1" spans="1:63">
-      <c r="A26" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D26" s="1">
         <v>40</v>
@@ -6252,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -6273,7 +6193,7 @@
         <v>0.5</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF26" s="1">
         <v>0</v>
@@ -6297,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN26" s="1">
         <v>35</v>
@@ -6312,10 +6232,10 @@
         <v>1</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AT26" s="1" t="s">
         <v>144</v>
@@ -6339,16 +6259,16 @@
         <v>146</v>
       </c>
       <c r="BA26" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="BC26" s="1">
         <v>0</v>
       </c>
       <c r="BF26" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="BG26" s="1">
         <v>0.35</v>
@@ -6356,11 +6276,9 @@
       <c r="BK26" s="2"/>
     </row>
     <row r="27" ht="57" customHeight="1" spans="1:63">
-      <c r="A27" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
@@ -6423,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Y27" s="1">
         <v>3</v>
@@ -6444,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF27" s="1">
         <v>0</v>
@@ -6468,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN27" s="1">
         <v>35</v>
@@ -6483,10 +6401,10 @@
         <v>1</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AT27" s="1" t="s">
         <v>144</v>
@@ -6510,33 +6428,31 @@
         <v>146</v>
       </c>
       <c r="BA27" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="BC27" s="1">
         <v>0</v>
       </c>
       <c r="BF27" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="BG27" s="1">
         <v>0.35</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" ht="57" customHeight="1" spans="1:63">
-      <c r="A28" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -6599,7 +6515,7 @@
         <v>0.05</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -6620,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF28" s="1">
         <v>0</v>
@@ -6644,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN28" s="1">
         <v>35</v>
@@ -6659,10 +6575,10 @@
         <v>1</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AT28" s="1" t="s">
         <v>144</v>
@@ -6686,16 +6602,16 @@
         <v>146</v>
       </c>
       <c r="BA28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="BB28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF28" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="BG28" s="1">
         <v>0.43</v>
@@ -6703,11 +6619,9 @@
       <c r="BK28" s="7"/>
     </row>
     <row r="29" ht="57" customHeight="1" spans="1:63">
-      <c r="A29" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -6770,7 +6684,7 @@
         <v>0.05</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y29" s="1">
         <v>0.45</v>
@@ -6791,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF29" s="1">
         <v>0</v>
@@ -6815,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN29" s="1">
         <v>35</v>
@@ -6830,10 +6744,10 @@
         <v>1</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AT29" s="1" t="s">
         <v>144</v>
@@ -6857,33 +6771,31 @@
         <v>146</v>
       </c>
       <c r="BA29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="BB29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF29" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="BG29" s="1">
         <v>0.43</v>
       </c>
       <c r="BK29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" ht="57" customHeight="1" spans="1:63">
-      <c r="A30" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1">
         <v>20</v>
@@ -6946,7 +6858,7 @@
         <v>0.05</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>
@@ -6967,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF30" s="1">
         <v>0</v>
@@ -6991,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AN30" s="1">
         <v>35</v>
@@ -7007,7 +6919,7 @@
       </c>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AW30" s="1">
         <v>0</v>
@@ -7031,11 +6943,9 @@
       <c r="BK30" s="7"/>
     </row>
     <row r="31" ht="57" customHeight="1" spans="1:63">
-      <c r="A31" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -7098,7 +7008,7 @@
         <v>0.05</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y31" s="1">
         <v>0.5</v>
@@ -7119,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF31" s="1">
         <v>0</v>
@@ -7143,7 +7053,7 @@
         <v>4</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AN31" s="1">
         <v>35</v>
@@ -7159,7 +7069,7 @@
       </c>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AW31" s="1">
         <v>0</v>
@@ -7181,7 +7091,7 @@
         <v>0.43</v>
       </c>
       <c r="BK31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7200,7 +7110,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7217,7 +7127,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28290" windowHeight="13050"/>
+    <workbookView windowWidth="28530" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,18 @@
     <t>AmmoCapacity</t>
   </si>
   <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
+    <t>MaxManaBuffer</t>
+  </si>
+  <si>
+    <t>ManaRecoverySpeed</t>
+  </si>
+  <si>
+    <t>PartPack</t>
+  </si>
+  <si>
     <t>ShowReloadBar</t>
   </si>
   <si>
@@ -218,6 +230,21 @@
   </si>
   <si>
     <t>弹夹容量</t>
+  </si>
+  <si>
+    <t>最大存储法力值</t>
+  </si>
+  <si>
+    <t>缓冲区法力最大值，武器开火将从缓冲区消耗法力值</t>
+  </si>
+  <si>
+    <t>缓冲区每秒法力恢复量</t>
+  </si>
+  <si>
+    <t>零件列表
+key：零件列表名称，例如“Fire”为开火零件列表
+value：零件对象配置列表，可以填 null 生成占位格以增加武器零件列表最大容量
+注意：ai武器不需要填写该字段</t>
   </si>
   <si>
     <t>换弹是否显示换弹进度</t>
@@ -388,6 +415,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>{string:[string]}*</t>
+  </si>
+  <si>
     <t>[int]</t>
   </si>
   <si>
@@ -410,6 +440,9 @@
   </si>
   <si>
     <t>weapon0003</t>
+  </si>
+  <si>
+    <t>"Fire":["1001",null,null,null,null,null,null]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -1272,11 +1305,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1626,14 +1659,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BG31"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1644,52 +1677,54 @@
     <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.775" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.0416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.225" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.475" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.275" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.075" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.225" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8916666666667" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.9583333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.1083333333333" style="1" customWidth="1"/>
-    <col min="26" max="27" width="23.775" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.475" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26.65" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5083333333333" style="1" customWidth="1"/>
-    <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
-    <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.4" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.775" style="1" customWidth="1"/>
-    <col min="35" max="35" width="20" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.975" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.6416666666667" style="1" customWidth="1"/>
-    <col min="40" max="43" width="27.775" style="1" customWidth="1"/>
-    <col min="44" max="46" width="24.075" style="1" customWidth="1"/>
-    <col min="47" max="47" width="22.1" style="1" customWidth="1"/>
-    <col min="48" max="48" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="49" max="49" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="50" max="50" width="25.225" style="1" customWidth="1"/>
-    <col min="51" max="51" width="23.7" style="1" customWidth="1"/>
-    <col min="52" max="52" width="37.925" style="1" customWidth="1"/>
-    <col min="53" max="53" width="22.6" style="1" customWidth="1"/>
-    <col min="54" max="54" width="30.475" style="1" customWidth="1"/>
-    <col min="55" max="55" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="56" max="56" width="32.475" style="2" customWidth="1"/>
+    <col min="7" max="9" width="17.225" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.9" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.775" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.0416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.225" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33.475" style="1" customWidth="1"/>
+    <col min="18" max="18" width="34.275" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="21" max="22" width="25.075" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25.225" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="25" max="25" width="24.8916666666667" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.9583333333333" style="1" customWidth="1"/>
+    <col min="29" max="29" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="30" max="31" width="23.775" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.475" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.65" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.5083333333333" style="1" customWidth="1"/>
+    <col min="35" max="35" width="29.2" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34.4" style="1" customWidth="1"/>
+    <col min="38" max="38" width="17.775" style="1" customWidth="1"/>
+    <col min="39" max="39" width="20" style="1" customWidth="1"/>
+    <col min="40" max="40" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.975" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7" style="1" customWidth="1"/>
+    <col min="43" max="43" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="44" max="47" width="27.775" style="1" customWidth="1"/>
+    <col min="48" max="50" width="24.075" style="1" customWidth="1"/>
+    <col min="51" max="51" width="22.1" style="1" customWidth="1"/>
+    <col min="52" max="52" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="53" max="53" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="54" max="54" width="25.225" style="1" customWidth="1"/>
+    <col min="55" max="55" width="23.7" style="1" customWidth="1"/>
+    <col min="56" max="56" width="37.925" style="1" customWidth="1"/>
+    <col min="57" max="57" width="22.6" style="1" customWidth="1"/>
+    <col min="58" max="58" width="30.475" style="1" customWidth="1"/>
+    <col min="59" max="59" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="60" max="60" width="32.475" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:56">
+    <row r="1" ht="31" customHeight="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,362 +1890,398 @@
       <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:59">
+    <row r="2" ht="114" customHeight="1" spans="1:63">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:56">
+    <row r="3" ht="27" customHeight="1" spans="1:60">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:56">
+    <row r="4" ht="57" customHeight="1" spans="1:60">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -2224,143 +2295,155 @@
       <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
+      <c r="H4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>150</v>
       </c>
       <c r="J4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>1.4</v>
       </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
       <c r="O4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="b">
-        <v>0</v>
+      <c r="P4" s="1">
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="b">
+      <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
         <v>0.05</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
         <v>460</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AB4" s="1">
         <v>460</v>
       </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
       <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
         <v>5</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AH4" s="1">
         <v>25</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AI4" s="1">
         <v>4</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AJ4" s="1">
         <v>40</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AK4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AL4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ4" s="1">
+      <c r="AM4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN4" s="1">
         <v>35</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AO4" s="1">
         <v>20</v>
       </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD4" s="1">
         <v>0.43</v>
       </c>
-      <c r="BD4" s="5"/>
+      <c r="BH4" s="6"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:56">
+    <row r="5" ht="57" customHeight="1" spans="1:60">
       <c r="A5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -2374,146 +2457,155 @@
       <c r="G5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
+      <c r="H5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>150</v>
       </c>
       <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1.4</v>
       </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
       <c r="O5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="b">
-        <v>0</v>
+      <c r="P5" s="1">
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="R5" s="1" t="b">
+      <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
         <v>0.05</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5" s="1">
         <v>0.55</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AA5" s="1">
         <v>460</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AB5" s="1">
         <v>460</v>
       </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
       <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
         <v>5</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AH5" s="1">
         <v>25</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AI5" s="1">
         <v>4</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AJ5" s="1">
         <v>40</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AK5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AL5" s="1">
         <v>4</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ5" s="1">
+      <c r="AM5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN5" s="1">
         <v>35</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AO5" s="1">
         <v>20</v>
       </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO5" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AY5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BH5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AZ5" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:56">
+    <row r="6" ht="57" customHeight="1" spans="1:60">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2527,141 +2619,141 @@
       <c r="G6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
       <c r="O6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="b">
-        <v>0</v>
+      <c r="P6" s="1">
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="1" t="b">
+      <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="T6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
         <v>480</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AB6" s="1">
         <v>480</v>
       </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
       <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
         <v>5</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AH6" s="1">
         <v>45</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AI6" s="1">
         <v>3</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AJ6" s="1">
         <v>40</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AK6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AL6" s="1">
         <v>2</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ6" s="1">
+      <c r="AM6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN6" s="1">
         <v>35</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AO6" s="1">
         <v>10</v>
       </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO6" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ6" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ6" s="1">
+      <c r="BC6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD6" s="1">
         <v>0.4</v>
       </c>
-      <c r="BD6" s="5"/>
+      <c r="BH6" s="6"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:56">
+    <row r="7" ht="57" customHeight="1" spans="1:60">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2675,146 +2767,146 @@
       <c r="G7" s="1">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="b">
-        <v>0</v>
+      <c r="P7" s="1">
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="R7" s="1" t="b">
+      <c r="R7" s="1">
         <v>0</v>
       </c>
       <c r="S7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="T7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>480</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>480</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>45</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="V7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="W7" s="1">
-        <v>480</v>
-      </c>
-      <c r="X7" s="1">
-        <v>480</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>45</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV7" s="1">
+      <c r="AX7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ7" s="1">
+      <c r="BC7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BD7" s="5" t="s">
-        <v>139</v>
+      <c r="BH7" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:56">
+    <row r="8" ht="57" customHeight="1" spans="1:60">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1">
         <v>40</v>
@@ -2828,153 +2920,153 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>0.26</v>
       </c>
-      <c r="K8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="R8" s="1">
         <v>0.45</v>
       </c>
-      <c r="O8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="S8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
         <v>0.6</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
         <v>120</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AB8" s="1">
         <v>120</v>
       </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
       <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
         <v>12</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AH8" s="1">
         <v>30</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AI8" s="1">
         <v>20</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AJ8" s="1">
         <v>40</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AK8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AL8" s="1">
         <v>4</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ8" s="1">
+      <c r="AM8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN8" s="1">
         <v>35</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AO8" s="1">
         <v>15</v>
       </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO8" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0</v>
+      <c r="AV8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD8" s="1">
         <v>0.3</v>
       </c>
-      <c r="BA8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="5"/>
+      <c r="BE8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="6"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:56">
+    <row r="9" ht="57" customHeight="1" spans="1:60">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
@@ -2988,158 +3080,158 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.26</v>
       </c>
-      <c r="K9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
         <v>0.5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="R9" s="1">
         <v>0.45</v>
       </c>
-      <c r="O9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="S9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
         <v>0.6</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z9" s="1">
         <v>1.4</v>
       </c>
-      <c r="W9" s="1">
+      <c r="AA9" s="1">
         <v>120</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AB9" s="1">
         <v>120</v>
       </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
       <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
         <v>12</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AH9" s="1">
         <v>30</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AI9" s="1">
         <v>20</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AJ9" s="1">
         <v>40</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AK9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AL9" s="1">
         <v>4</v>
       </c>
-      <c r="AI9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ9" s="1">
+      <c r="AM9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN9" s="1">
         <v>35</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AO9" s="1">
         <v>15</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO9" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
+      <c r="AV9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD9" s="1">
         <v>0.3</v>
       </c>
-      <c r="BA9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="5" t="s">
-        <v>148</v>
+      <c r="BE9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:56">
+    <row r="10" ht="57" customHeight="1" spans="1:60">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3153,69 +3245,57 @@
       <c r="G10" s="1">
         <v>180</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="b">
+      <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="1" t="b">
+      <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
+      <c r="T10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>180</v>
       </c>
-      <c r="X10" s="1">
+      <c r="AB10" s="1">
         <v>180</v>
       </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
       <c r="AC10" s="1">
         <v>0</v>
       </c>
@@ -3232,41 +3312,53 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
         <v>7</v>
       </c>
-      <c r="AI10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ10" s="1">
+      <c r="AM10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN10" s="1">
         <v>24</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AO10" s="1">
         <v>-95</v>
       </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>1</v>
+      <c r="AP10" s="1">
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD10" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH10" s="6"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:56">
+    <row r="11" ht="57" customHeight="1" spans="1:60">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3280,69 +3372,57 @@
       <c r="G11" s="1">
         <v>180</v>
       </c>
-      <c r="H11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
       <c r="O11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="b">
+      <c r="P11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="1" t="b">
+      <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="T11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z11" s="1">
         <v>2</v>
       </c>
-      <c r="W11" s="1">
+      <c r="AA11" s="1">
         <v>180</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AB11" s="1">
         <v>180</v>
       </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
       <c r="AC11" s="1">
         <v>0</v>
       </c>
@@ -3359,46 +3439,58 @@
         <v>0</v>
       </c>
       <c r="AH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
         <v>7</v>
       </c>
-      <c r="AI11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ11" s="1">
+      <c r="AM11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN11" s="1">
         <v>24</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AO11" s="1">
         <v>-95</v>
       </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>1</v>
+      <c r="AP11" s="1">
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD11" s="5" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH11" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:56">
+    <row r="12" ht="57" customHeight="1" spans="1:60">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3412,147 +3504,147 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>2.8</v>
       </c>
-      <c r="K12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
       <c r="O12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="b">
-        <v>0</v>
+      <c r="P12" s="1">
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
-      <c r="R12" s="1" t="b">
-        <v>1</v>
+      <c r="R12" s="1">
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
         <v>0.9</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
         <v>150</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AB12" s="1">
         <v>150</v>
       </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
       <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
         <v>3</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AH12" s="1">
         <v>60</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AI12" s="1">
         <v>40</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AJ12" s="1">
         <v>40</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AK12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AL12" s="1">
         <v>5</v>
       </c>
-      <c r="AI12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ12" s="1">
+      <c r="AM12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN12" s="1">
         <v>20</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AO12" s="1">
         <v>15</v>
       </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO12" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>158</v>
+      <c r="AV12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="6"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:56">
+    <row r="13" ht="57" customHeight="1" spans="1:60">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3566,152 +3658,152 @@
       <c r="G13" s="1">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>2.8</v>
       </c>
-      <c r="K13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
       <c r="O13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="b">
-        <v>0</v>
+      <c r="P13" s="1">
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1" t="b">
-        <v>1</v>
+      <c r="R13" s="1">
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
         <v>0.9</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="Y13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z13" s="1">
         <v>2.2</v>
       </c>
-      <c r="W13" s="1">
+      <c r="AA13" s="1">
         <v>150</v>
       </c>
-      <c r="X13" s="1">
+      <c r="AB13" s="1">
         <v>150</v>
       </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
       <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
         <v>3</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AH13" s="1">
         <v>60</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AI13" s="1">
         <v>40</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AJ13" s="1">
         <v>40</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AK13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AL13" s="1">
         <v>5</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ13" s="1">
+      <c r="AM13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN13" s="1">
         <v>20</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AO13" s="1">
         <v>15</v>
       </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO13" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU13" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>158</v>
+      <c r="AV13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="5" t="s">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:56">
+    <row r="14" ht="57" customHeight="1" spans="1:60">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -3725,141 +3817,141 @@
       <c r="G14" s="1">
         <v>20</v>
       </c>
-      <c r="H14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>1.8</v>
       </c>
-      <c r="K14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
       <c r="O14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="b">
-        <v>0</v>
+      <c r="P14" s="1">
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="R14" s="1" t="b">
+      <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
+      <c r="T14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
         <v>700</v>
       </c>
-      <c r="X14" s="1">
+      <c r="AB14" s="1">
         <v>700</v>
       </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
       <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
         <v>3</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AH14" s="1">
         <v>30</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AI14" s="1">
         <v>2</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AJ14" s="1">
         <v>40</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AK14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AL14" s="1">
         <v>2</v>
       </c>
-      <c r="AI14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ14" s="1">
+      <c r="AM14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN14" s="1">
         <v>35</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AO14" s="1">
         <v>5</v>
       </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO14" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY14" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BD14" s="3"/>
+      <c r="BH14" s="3"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:56">
+    <row r="15" ht="57" customHeight="1" spans="1:60">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -3873,146 +3965,146 @@
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>1.8</v>
       </c>
-      <c r="K15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
       <c r="O15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="b">
-        <v>0</v>
+      <c r="P15" s="1">
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
       </c>
-      <c r="R15" s="1" t="b">
+      <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V15" s="1">
+      <c r="T15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z15" s="1">
         <v>1.4</v>
       </c>
-      <c r="W15" s="1">
+      <c r="AA15" s="1">
         <v>700</v>
       </c>
-      <c r="X15" s="1">
+      <c r="AB15" s="1">
         <v>700</v>
       </c>
-      <c r="Y15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
       <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
         <v>3</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AH15" s="1">
         <v>30</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AI15" s="1">
         <v>2</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AJ15" s="1">
         <v>30</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AK15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AL15" s="1">
         <v>2</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AM15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BH15" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AJ15" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BD15" s="5" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:56">
+    <row r="16" ht="57" customHeight="1" spans="1:60">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4026,141 +4118,141 @@
       <c r="G16" s="1">
         <v>60</v>
       </c>
-      <c r="H16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>2.2</v>
       </c>
-      <c r="K16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
       <c r="O16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="b">
-        <v>0</v>
+      <c r="P16" s="1">
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-      <c r="R16" s="1" t="b">
+      <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
+      <c r="T16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
         <v>700</v>
       </c>
-      <c r="X16" s="1">
+      <c r="AB16" s="1">
         <v>700</v>
       </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
         <v>6</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AH16" s="1">
         <v>60</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AI16" s="1">
         <v>3</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AJ16" s="1">
         <v>50</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AK16" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AL16" s="1">
         <v>2</v>
       </c>
-      <c r="AI16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ16" s="1">
+      <c r="AM16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN16" s="1">
         <v>35</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AO16" s="1">
         <v>5</v>
       </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO16" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ16" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ16" s="1">
+      <c r="BC16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BD16" s="3"/>
+      <c r="BH16" s="3"/>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:56">
+    <row r="17" ht="57" customHeight="1" spans="1:60">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4174,146 +4266,146 @@
       <c r="G17" s="1">
         <v>60</v>
       </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>2.2</v>
       </c>
-      <c r="K17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
       <c r="O17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="b">
-        <v>0</v>
+      <c r="P17" s="1">
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
-      <c r="R17" s="1" t="b">
+      <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="T17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z17" s="1">
         <v>2</v>
       </c>
-      <c r="W17" s="1">
+      <c r="AA17" s="1">
         <v>700</v>
       </c>
-      <c r="X17" s="1">
+      <c r="AB17" s="1">
         <v>700</v>
       </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
       <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
         <v>10</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AH17" s="1">
         <v>30</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AI17" s="1">
         <v>3</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AJ17" s="1">
         <v>50</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AK17" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AL17" s="1">
         <v>2</v>
       </c>
-      <c r="AI17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ17" s="1">
+      <c r="AM17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN17" s="1">
         <v>35</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AO17" s="1">
         <v>5</v>
       </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO17" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ17" s="1">
         <v>0.2</v>
       </c>
-      <c r="AY17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ17" s="1">
+      <c r="BC17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BD17" s="3" t="s">
-        <v>170</v>
+      <c r="BH17" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:56">
+    <row r="18" ht="57" customHeight="1" spans="1:60">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4327,132 +4419,132 @@
       <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>1.8</v>
       </c>
-      <c r="K18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
       <c r="O18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="b">
-        <v>0</v>
+      <c r="P18" s="1">
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
-      <c r="R18" s="1" t="b">
+      <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+      <c r="T18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
         <v>300</v>
       </c>
-      <c r="X18" s="1">
+      <c r="AB18" s="1">
         <v>300</v>
       </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
       <c r="AC18" s="1">
         <v>0</v>
       </c>
       <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
         <v>8</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AI18" s="1">
         <v>3</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AJ18" s="1">
         <v>20</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AK18" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AL18" s="1">
         <v>2</v>
       </c>
-      <c r="AI18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ18" s="1">
+      <c r="AM18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN18" s="1">
         <v>25</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AO18" s="1">
         <v>13</v>
       </c>
-      <c r="AL18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>1</v>
-      </c>
       <c r="AP18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AV18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY18" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD18" s="1">
         <v>0.8</v>
       </c>
-      <c r="BD18" s="3"/>
+      <c r="BH18" s="3"/>
     </row>
-    <row r="19" ht="57" customHeight="1" spans="1:56">
+    <row r="19" ht="57" customHeight="1" spans="1:60">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4466,137 +4558,137 @@
       <c r="G19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>1.8</v>
       </c>
-      <c r="K19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
       <c r="O19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="b">
-        <v>0</v>
+      <c r="P19" s="1">
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
-      <c r="R19" s="1" t="b">
+      <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="T19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z19" s="1">
         <v>1.8</v>
       </c>
-      <c r="W19" s="1">
+      <c r="AA19" s="1">
         <v>300</v>
       </c>
-      <c r="X19" s="1">
+      <c r="AB19" s="1">
         <v>300</v>
       </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
       <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
         <v>8</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AI19" s="1">
         <v>3</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AJ19" s="1">
         <v>20</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AK19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AL19" s="1">
         <v>2</v>
       </c>
-      <c r="AI19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ19" s="1">
+      <c r="AM19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN19" s="1">
         <v>25</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AO19" s="1">
         <v>13</v>
       </c>
-      <c r="AL19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>1</v>
-      </c>
       <c r="AP19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AV19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BD19" s="3" t="s">
-        <v>176</v>
+      <c r="BH19" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:56">
+    <row r="20" ht="57" customHeight="1" spans="1:60">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -4610,147 +4702,147 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
         <v>1.5</v>
       </c>
-      <c r="K20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
       <c r="O20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="b">
-        <v>0</v>
+      <c r="P20" s="1">
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="1" t="b">
+      <c r="R20" s="1">
         <v>0</v>
       </c>
       <c r="S20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
+      <c r="T20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
         <v>180</v>
       </c>
-      <c r="X20" s="1">
+      <c r="AB20" s="1">
         <v>180</v>
       </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
       <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
         <v>3</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AH20" s="1">
         <v>8</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AI20" s="1">
         <v>5</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AJ20" s="1">
         <v>40</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AK20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AL20" s="1">
         <v>2</v>
       </c>
-      <c r="AI20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ20" s="1">
+      <c r="AM20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN20" s="1">
         <v>20</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AO20" s="1">
         <v>16</v>
       </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
         <v>3</v>
       </c>
-      <c r="AN20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="1">
+      <c r="AR20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="1">
         <v>0.46</v>
       </c>
-      <c r="AR20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV20" s="1">
+      <c r="AV20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ20" s="1">
         <v>0.24</v>
       </c>
-      <c r="AW20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX20" s="1">
+      <c r="BA20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB20" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ20" s="1">
+      <c r="BC20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD20" s="1">
         <v>0.26</v>
       </c>
-      <c r="BD20" s="3"/>
+      <c r="BH20" s="3"/>
     </row>
-    <row r="21" ht="57" customHeight="1" spans="1:56">
+    <row r="21" ht="57" customHeight="1" spans="1:60">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -4764,152 +4856,152 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
         <v>1.5</v>
       </c>
-      <c r="K21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
       <c r="O21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="b">
-        <v>0</v>
+      <c r="P21" s="1">
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-      <c r="R21" s="1" t="b">
+      <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V21" s="1">
+      <c r="T21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z21" s="1">
         <v>1.3</v>
       </c>
-      <c r="W21" s="1">
+      <c r="AA21" s="1">
         <v>180</v>
       </c>
-      <c r="X21" s="1">
+      <c r="AB21" s="1">
         <v>180</v>
       </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
         <v>3</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AH21" s="1">
         <v>8</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AI21" s="1">
         <v>5</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AJ21" s="1">
         <v>40</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AK21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AL21" s="1">
         <v>2</v>
       </c>
-      <c r="AI21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ21" s="1">
+      <c r="AM21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN21" s="1">
         <v>20</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AO21" s="1">
         <v>16</v>
       </c>
-      <c r="AL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1">
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
         <v>3</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AO21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="1">
+      <c r="AR21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="1">
         <v>0.46</v>
       </c>
-      <c r="AR21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV21" s="1">
+      <c r="AV21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ21" s="1">
         <v>0.24</v>
       </c>
-      <c r="AW21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX21" s="1">
+      <c r="BA21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB21" s="1">
         <v>0.8</v>
       </c>
-      <c r="AY21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ21" s="1">
+      <c r="BC21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BD21" s="3" t="s">
-        <v>183</v>
+      <c r="BH21" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="22" ht="57" customHeight="1" spans="1:56">
+    <row r="22" ht="57" customHeight="1" spans="1:60">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -4923,132 +5015,132 @@
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>2</v>
       </c>
-      <c r="K22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
       <c r="O22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="b">
-        <v>0</v>
+      <c r="P22" s="1">
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="1" t="b">
+      <c r="R22" s="1">
         <v>0</v>
       </c>
       <c r="S22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
+      <c r="T22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>210</v>
       </c>
-      <c r="X22" s="1">
+      <c r="AB22" s="1">
         <v>210</v>
       </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
       <c r="AC22" s="1">
         <v>0</v>
       </c>
       <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
         <v>20</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AI22" s="1">
         <v>7</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AJ22" s="1">
         <v>20</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AK22" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AL22" s="1">
         <v>2</v>
       </c>
-      <c r="AI22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ22" s="1">
+      <c r="AM22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN22" s="1">
         <v>25</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AO22" s="1">
         <v>16</v>
       </c>
-      <c r="AL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>1</v>
-      </c>
       <c r="AP22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU22" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="1" t="s">
-        <v>187</v>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY22" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="BD22" s="3"/>
+      <c r="BH22" s="3"/>
     </row>
-    <row r="23" ht="57" customHeight="1" spans="1:56">
+    <row r="23" ht="57" customHeight="1" spans="1:60">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5062,137 +5154,137 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
       <c r="O23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="b">
-        <v>0</v>
+      <c r="P23" s="1">
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="1" t="b">
+      <c r="R23" s="1">
         <v>0</v>
       </c>
       <c r="S23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V23" s="1">
+      <c r="T23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z23" s="1">
         <v>1.5</v>
       </c>
-      <c r="W23" s="1">
+      <c r="AA23" s="1">
         <v>210</v>
       </c>
-      <c r="X23" s="1">
+      <c r="AB23" s="1">
         <v>210</v>
       </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
       <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
         <v>20</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AI23" s="1">
         <v>7</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AJ23" s="1">
         <v>20</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AK23" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AL23" s="1">
         <v>2</v>
       </c>
-      <c r="AI23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ23" s="1">
+      <c r="AM23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN23" s="1">
         <v>25</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AO23" s="1">
         <v>16</v>
       </c>
-      <c r="AL23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>1</v>
-      </c>
       <c r="AP23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="1" t="s">
-        <v>187</v>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY23" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD23" s="1">
         <v>0.6</v>
       </c>
-      <c r="BD23" s="3" t="s">
-        <v>188</v>
+      <c r="BH23" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="24" ht="57" customHeight="1" spans="1:56">
+    <row r="24" ht="57" customHeight="1" spans="1:60">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
@@ -5206,135 +5298,135 @@
       <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>1.8</v>
       </c>
-      <c r="K24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
       <c r="O24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="b">
-        <v>0</v>
+      <c r="P24" s="1">
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-      <c r="R24" s="1" t="b">
+      <c r="R24" s="1">
         <v>0</v>
       </c>
       <c r="S24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
+      <c r="T24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
         <v>700</v>
       </c>
-      <c r="X24" s="1">
+      <c r="AB24" s="1">
         <v>700</v>
       </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
       <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
         <v>3</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AH24" s="1">
         <v>30</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AI24" s="1">
         <v>2</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AJ24" s="1">
         <v>40</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AK24" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AL24" s="1">
         <v>2</v>
       </c>
-      <c r="AI24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ24" s="1">
+      <c r="AM24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN24" s="1">
         <v>35</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AO24" s="1">
         <v>5</v>
       </c>
-      <c r="AL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="1" t="b">
+      <c r="AP24" s="1">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="1" t="s">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="AS24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY24" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="AZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD24" s="1">
         <v>0.6</v>
       </c>
-      <c r="BD24" s="3"/>
+      <c r="BH24" s="3"/>
     </row>
-    <row r="25" ht="57" customHeight="1" spans="1:56">
+    <row r="25" ht="57" customHeight="1" spans="1:60">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -5348,140 +5440,140 @@
       <c r="G25" s="1">
         <v>20</v>
       </c>
-      <c r="H25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>1.8</v>
       </c>
-      <c r="K25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
       <c r="O25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="b">
-        <v>0</v>
+      <c r="P25" s="1">
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="b">
+      <c r="R25" s="1">
         <v>0</v>
       </c>
       <c r="S25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V25" s="1">
+      <c r="T25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z25" s="1">
         <v>1.6</v>
       </c>
-      <c r="W25" s="1">
+      <c r="AA25" s="1">
         <v>350</v>
       </c>
-      <c r="X25" s="1">
+      <c r="AB25" s="1">
         <v>350</v>
       </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
       <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
         <v>3</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AH25" s="1">
         <v>30</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AI25" s="1">
         <v>2</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AJ25" s="1">
         <v>30</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AK25" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AL25" s="1">
         <v>2</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AM25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BH25" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AJ25" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AV25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BD25" s="5" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="26" ht="57" customHeight="1" spans="1:56">
+    <row r="26" ht="57" customHeight="1" spans="1:60">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D26" s="1">
         <v>40</v>
@@ -5495,141 +5587,141 @@
       <c r="G26" s="1">
         <v>50</v>
       </c>
-      <c r="H26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
       <c r="O26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="b">
-        <v>0</v>
+      <c r="P26" s="1">
+        <v>1</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
-      <c r="R26" s="1" t="b">
+      <c r="R26" s="1">
         <v>0</v>
       </c>
       <c r="S26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
+      <c r="T26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
         <v>900</v>
       </c>
-      <c r="X26" s="1">
+      <c r="AB26" s="1">
         <v>900</v>
       </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
         <v>0.5</v>
       </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
         <v>5</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AH26" s="1">
         <v>35</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AI26" s="1">
         <v>2</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AJ26" s="1">
         <v>50</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AK26" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AL26" s="1">
         <v>2</v>
       </c>
-      <c r="AI26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ26" s="1">
+      <c r="AM26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN26" s="1">
         <v>35</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AO26" s="1">
         <v>3</v>
       </c>
-      <c r="AL26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO26" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY26" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="AZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD26" s="1">
         <v>0.35</v>
       </c>
-      <c r="BD26" s="3"/>
+      <c r="BH26" s="3"/>
     </row>
-    <row r="27" ht="57" customHeight="1" spans="1:56">
+    <row r="27" ht="57" customHeight="1" spans="1:60">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
@@ -5643,146 +5735,146 @@
       <c r="G27" s="1">
         <v>50</v>
       </c>
-      <c r="H27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
         <v>2</v>
       </c>
-      <c r="K27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
       <c r="O27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="b">
-        <v>0</v>
+      <c r="P27" s="1">
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
-      <c r="R27" s="1" t="b">
+      <c r="R27" s="1">
         <v>0</v>
       </c>
       <c r="S27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V27" s="1">
+      <c r="T27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z27" s="1">
         <v>3</v>
       </c>
-      <c r="W27" s="1">
+      <c r="AA27" s="1">
         <v>900</v>
       </c>
-      <c r="X27" s="1">
+      <c r="AB27" s="1">
         <v>900</v>
       </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
       <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
         <v>10</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AH27" s="1">
         <v>30</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AI27" s="1">
         <v>3</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AJ27" s="1">
         <v>50</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AK27" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AL27" s="1">
         <v>2</v>
       </c>
-      <c r="AI27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ27" s="1">
+      <c r="AM27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN27" s="1">
         <v>35</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AO27" s="1">
         <v>3</v>
       </c>
-      <c r="AL27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO27" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY27" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD27" s="1">
         <v>0.35</v>
       </c>
-      <c r="BD27" s="3" t="s">
-        <v>170</v>
+      <c r="BH27" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="28" ht="57" customHeight="1" spans="1:56">
+    <row r="28" ht="57" customHeight="1" spans="1:60">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -5796,141 +5888,141 @@
       <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="H28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="L28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="b">
-        <v>0</v>
+      <c r="P28" s="1">
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="R28" s="1" t="b">
+      <c r="R28" s="1">
         <v>0</v>
       </c>
       <c r="S28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
         <v>0.05</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
+      <c r="Y28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>600</v>
       </c>
-      <c r="X28" s="1">
+      <c r="AB28" s="1">
         <v>600</v>
       </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
       <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
         <v>2</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AH28" s="1">
         <v>25</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AI28" s="1">
         <v>5</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AJ28" s="1">
         <v>25</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AK28" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AL28" s="1">
         <v>4</v>
       </c>
-      <c r="AI28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ28" s="1">
+      <c r="AM28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN28" s="1">
         <v>35</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AO28" s="1">
         <v>20</v>
       </c>
-      <c r="AL28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO28" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="1">
         <v>5</v>
       </c>
-      <c r="AQ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>0</v>
+      <c r="AU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AY28" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD28" s="1">
         <v>0.43</v>
       </c>
-      <c r="BD28" s="5"/>
+      <c r="BH28" s="6"/>
     </row>
-    <row r="29" ht="57" customHeight="1" spans="1:56">
+    <row r="29" ht="57" customHeight="1" spans="1:60">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -5944,146 +6036,146 @@
       <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="L29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="b">
-        <v>0</v>
+      <c r="P29" s="1">
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="R29" s="1" t="b">
+      <c r="R29" s="1">
         <v>0</v>
       </c>
       <c r="S29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
         <v>0.05</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V29" s="1">
+      <c r="Y29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z29" s="1">
         <v>0.45</v>
       </c>
-      <c r="W29" s="1">
+      <c r="AA29" s="1">
         <v>300</v>
       </c>
-      <c r="X29" s="1">
+      <c r="AB29" s="1">
         <v>300</v>
       </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
       <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
         <v>2</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AH29" s="1">
         <v>25</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AI29" s="1">
         <v>5</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AJ29" s="1">
         <v>25</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AK29" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AL29" s="1">
         <v>4</v>
       </c>
-      <c r="AI29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ29" s="1">
+      <c r="AM29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN29" s="1">
         <v>35</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AO29" s="1">
         <v>20</v>
       </c>
-      <c r="AL29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO29" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="1">
         <v>5</v>
       </c>
-      <c r="AQ29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV29" s="1">
-        <v>0</v>
+      <c r="AU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AY29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BH29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AZ29" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BD29" s="5" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="30" ht="57" customHeight="1" spans="1:56">
+    <row r="30" ht="57" customHeight="1" spans="1:60">
       <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D30" s="1">
         <v>20</v>
@@ -6097,126 +6189,126 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
         <v>0.01</v>
       </c>
-      <c r="K30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
       <c r="O30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="b">
+      <c r="P30" s="1">
         <v>1</v>
       </c>
       <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
         <v>0.5</v>
       </c>
-      <c r="R30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
+      <c r="V30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
         <v>0.05</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
+      <c r="Y30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
         <v>600</v>
       </c>
-      <c r="X30" s="1">
+      <c r="AB30" s="1">
         <v>600</v>
       </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
       <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
         <v>5</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AH30" s="1">
         <v>40</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AI30" s="1">
         <v>40</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AJ30" s="1">
         <v>50</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AK30" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AL30" s="1">
         <v>4</v>
       </c>
-      <c r="AI30" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ30" s="1">
+      <c r="AM30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN30" s="1">
         <v>35</v>
       </c>
-      <c r="AK30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>1</v>
+      <c r="AO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV30" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX30" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="1">
         <v>0.43</v>
       </c>
-      <c r="BD30" s="5"/>
+      <c r="BH30" s="6"/>
     </row>
-    <row r="31" ht="57" customHeight="1" spans="1:56">
+    <row r="31" ht="57" customHeight="1" spans="1:60">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -6230,122 +6322,122 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
         <v>0.5</v>
       </c>
-      <c r="K31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
       <c r="O31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="b">
+      <c r="P31" s="1">
         <v>1</v>
       </c>
       <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
         <v>0.5</v>
       </c>
-      <c r="R31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1">
+      <c r="V31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
         <v>0.05</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V31" s="1">
+      <c r="Y31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z31" s="1">
         <v>0.5</v>
       </c>
-      <c r="W31" s="1">
+      <c r="AA31" s="1">
         <v>600</v>
       </c>
-      <c r="X31" s="1">
+      <c r="AB31" s="1">
         <v>600</v>
       </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
-      </c>
       <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
         <v>5</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AH31" s="1">
         <v>40</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AI31" s="1">
         <v>40</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AJ31" s="1">
         <v>50</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AK31" s="1">
         <v>0.4</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AL31" s="1">
         <v>4</v>
       </c>
-      <c r="AI31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ31" s="1">
+      <c r="AM31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN31" s="1">
         <v>35</v>
       </c>
-      <c r="AK31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>1</v>
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV31" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AZ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="1">
         <v>0.43</v>
       </c>
-      <c r="BD31" s="5" t="s">
-        <v>122</v>
+      <c r="BH31" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -55,7 +55,7 @@
     <t>MaxMana</t>
   </si>
   <si>
-    <t>MaxManaBuffer</t>
+    <t>MaxBufferMana</t>
   </si>
   <si>
     <t>ManaRecoverySpeed</t>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="14235"/>
+    <workbookView windowWidth="25860" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
     <t>weapon0003</t>
   </si>
   <si>
-    <t>"Fire":["1001",null,null,null,null,null,null]</t>
+    <t>"Fire":["1001",null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -1662,11 +1662,11 @@
   <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="13065"/>
+    <workbookView windowWidth="27855" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
     <t>weapon0003</t>
   </si>
   <si>
-    <t>"Fire":["1001",null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null,null]</t>
+    <t>"Fire":["0001",null,null,null,null]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -1662,7 +1662,7 @@
   <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1677,9 +1677,11 @@
     <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="9" width="17.225" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.225" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.225" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.9" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.775" style="1" customWidth="1"/>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -442,7 +442,7 @@
     <t>weapon0003</t>
   </si>
   <si>
-    <t>"Fire":["0001",null,null,null,null]</t>
+    <t>"Fire":["0003",null,null,null,null]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -469,12 +469,18 @@
     <t>0003_ai</t>
   </si>
   <si>
+    <t>0001</t>
+  </si>
+  <si>
     <t>步枪</t>
   </si>
   <si>
     <t>weapon0001</t>
   </si>
   <si>
+    <t>"Fire":["0001",null,null,null]</t>
+  </si>
+  <si>
     <t>[2,4]</t>
   </si>
   <si>
@@ -484,10 +490,13 @@
     <t>beLoaded0011</t>
   </si>
   <si>
+    <t>0001_ai</t>
+  </si>
+  <si>
     <t>[3]</t>
   </si>
   <si>
-    <t>0001</t>
+    <t>0002</t>
   </si>
   <si>
     <t>霰弹枪</t>
@@ -496,6 +505,9 @@
     <t>weapon0002</t>
   </si>
   <si>
+    <t>"Fire":["0004",null,null,null]</t>
+  </si>
+  <si>
     <t>[5,6]</t>
   </si>
   <si>
@@ -514,7 +526,7 @@
     <t>beLoaded0005</t>
   </si>
   <si>
-    <t>0002</t>
+    <t>0002_ai</t>
   </si>
   <si>
     <t>刀</t>
@@ -1662,11 +1674,11 @@
   <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2304,7 +2316,7 @@
         <v>150</v>
       </c>
       <c r="J4" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>134</v>
@@ -2466,7 +2478,7 @@
         <v>150</v>
       </c>
       <c r="J5" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>1</v>
@@ -2602,12 +2614,14 @@
       </c>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:60">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2621,6 +2635,18 @@
       <c r="G6" s="1">
         <v>30</v>
       </c>
+      <c r="H6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="L6" s="1" t="b">
         <v>1</v>
       </c>
@@ -2703,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN6" s="1">
         <v>35</v>
@@ -2739,13 +2765,13 @@
         <v>139</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AZ6" s="1">
         <v>0.2</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BD6" s="1">
         <v>0.4</v>
@@ -2753,9 +2779,11 @@
       <c r="BH6" s="6"/>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:60">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2769,6 +2797,15 @@
       <c r="G7" s="1">
         <v>30</v>
       </c>
+      <c r="H7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45</v>
+      </c>
       <c r="L7" s="1" t="b">
         <v>1</v>
       </c>
@@ -2809,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="1">
         <v>1.2</v>
@@ -2851,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN7" s="1">
         <v>35</v>
@@ -2887,28 +2924,30 @@
         <v>139</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.2</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BD7" s="1">
         <v>0.4</v>
       </c>
       <c r="BH7" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:60">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1">
         <v>40</v>
@@ -2922,6 +2961,18 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
+      <c r="H8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="L8" s="1" t="b">
         <v>1</v>
       </c>
@@ -3004,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AN8" s="1">
         <v>35</v>
@@ -3019,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AS8" s="1" t="b">
         <v>0</v>
@@ -3040,25 +3091,25 @@
         <v>139</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AZ8" s="1">
         <v>0</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BD8" s="1">
         <v>0.3</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BF8" s="1">
         <v>0</v>
@@ -3066,9 +3117,11 @@
       <c r="BH8" s="6"/>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:60">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
@@ -3082,6 +3135,15 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
+      <c r="H9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>200</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
       <c r="L9" s="1" t="b">
         <v>1</v>
       </c>
@@ -3164,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AN9" s="1">
         <v>35</v>
@@ -3179,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AS9" s="1" t="b">
         <v>0</v>
@@ -3200,40 +3262,40 @@
         <v>139</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AZ9" s="1">
         <v>0</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BD9" s="1">
         <v>0.3</v>
       </c>
       <c r="BE9" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BF9" s="1">
         <v>0</v>
       </c>
       <c r="BH9" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:60">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3329,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AN10" s="1">
         <v>24</v>
@@ -3360,7 +3422,7 @@
     <row r="11" ht="57" customHeight="1" spans="1:60">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3456,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AN11" s="1">
         <v>24</v>
@@ -3483,16 +3545,16 @@
         <v>139</v>
       </c>
       <c r="BH11" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:60">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3588,7 +3650,7 @@
         <v>5</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AN12" s="1">
         <v>20</v>
@@ -3603,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS12" s="1" t="b">
         <v>0</v>
@@ -3624,19 +3686,19 @@
         <v>139</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AZ12" s="1">
         <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BD12" s="1">
         <v>1</v>
       </c>
       <c r="BE12" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BF12" s="1">
         <v>0</v>
@@ -3646,7 +3708,7 @@
     <row r="13" ht="57" customHeight="1" spans="1:60">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3742,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AN13" s="1">
         <v>20</v>
@@ -3757,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AS13" s="1" t="b">
         <v>0</v>
@@ -3778,34 +3840,34 @@
         <v>139</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AZ13" s="1">
         <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BD13" s="1">
         <v>1</v>
       </c>
       <c r="BE13" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BF13" s="1">
         <v>0</v>
       </c>
       <c r="BH13" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:60">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -3901,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN14" s="1">
         <v>35</v>
@@ -3937,13 +3999,13 @@
         <v>139</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AZ14" s="1">
         <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BD14" s="1">
         <v>0.6</v>
@@ -3953,7 +4015,7 @@
     <row r="15" ht="57" customHeight="1" spans="1:60">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4007,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Z15" s="1">
         <v>1.4</v>
@@ -4049,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN15" s="1">
         <v>35</v>
@@ -4085,28 +4147,28 @@
         <v>139</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AZ15" s="1">
         <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BD15" s="1">
         <v>0.6</v>
       </c>
       <c r="BH15" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" ht="57" customHeight="1" spans="1:60">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4202,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN16" s="1">
         <v>35</v>
@@ -4238,13 +4300,13 @@
         <v>139</v>
       </c>
       <c r="AY16" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AZ16" s="1">
         <v>0.2</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BD16" s="1">
         <v>0.65</v>
@@ -4254,7 +4316,7 @@
     <row r="17" ht="57" customHeight="1" spans="1:60">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4350,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN17" s="1">
         <v>35</v>
@@ -4386,28 +4448,28 @@
         <v>139</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AZ17" s="1">
         <v>0.2</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BD17" s="1">
         <v>0.65</v>
       </c>
       <c r="BH17" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" ht="57" customHeight="1" spans="1:60">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4503,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN18" s="1">
         <v>25</v>
@@ -4530,13 +4592,13 @@
         <v>139</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AZ18" s="1">
         <v>0</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BD18" s="1">
         <v>0.8</v>
@@ -4546,7 +4608,7 @@
     <row r="19" ht="57" customHeight="1" spans="1:60">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4642,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN19" s="1">
         <v>25</v>
@@ -4669,28 +4731,28 @@
         <v>139</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AZ19" s="1">
         <v>0</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BD19" s="1">
         <v>0.8</v>
       </c>
       <c r="BH19" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="57" customHeight="1" spans="1:60">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -4786,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN20" s="1">
         <v>20</v>
@@ -4801,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AS20" s="1" t="b">
         <v>1</v>
@@ -4822,19 +4884,19 @@
         <v>139</v>
       </c>
       <c r="AY20" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AZ20" s="1">
         <v>0.24</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BB20" s="1">
         <v>0.8</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BD20" s="1">
         <v>0.26</v>
@@ -4844,7 +4906,7 @@
     <row r="21" ht="57" customHeight="1" spans="1:60">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -4940,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN21" s="1">
         <v>20</v>
@@ -4955,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AS21" s="1" t="b">
         <v>1</v>
@@ -4976,34 +5038,34 @@
         <v>139</v>
       </c>
       <c r="AY21" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AZ21" s="1">
         <v>0.24</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BB21" s="1">
         <v>0.8</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BD21" s="1">
         <v>0.26</v>
       </c>
       <c r="BH21" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" ht="57" customHeight="1" spans="1:60">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5099,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN22" s="1">
         <v>25</v>
@@ -5126,13 +5188,13 @@
         <v>139</v>
       </c>
       <c r="AY22" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AZ22" s="1">
         <v>0</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BD22" s="1">
         <v>0.6</v>
@@ -5142,7 +5204,7 @@
     <row r="23" ht="57" customHeight="1" spans="1:60">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5238,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN23" s="1">
         <v>25</v>
@@ -5265,28 +5327,28 @@
         <v>139</v>
       </c>
       <c r="AY23" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AZ23" s="1">
         <v>0</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BD23" s="1">
         <v>0.6</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" ht="57" customHeight="1" spans="1:60">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
@@ -5382,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN24" s="1">
         <v>35</v>
@@ -5412,13 +5474,13 @@
         <v>139</v>
       </c>
       <c r="AY24" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BD24" s="1">
         <v>0.6</v>
@@ -5428,7 +5490,7 @@
     <row r="25" ht="57" customHeight="1" spans="1:60">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -5482,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Z25" s="1">
         <v>1.6</v>
@@ -5524,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN25" s="1">
         <v>35</v>
@@ -5554,28 +5616,28 @@
         <v>139</v>
       </c>
       <c r="AY25" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BD25" s="1">
         <v>0.6</v>
       </c>
       <c r="BH25" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" ht="57" customHeight="1" spans="1:60">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1">
         <v>40</v>
@@ -5671,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN26" s="1">
         <v>35</v>
@@ -5707,13 +5769,13 @@
         <v>139</v>
       </c>
       <c r="AY26" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BD26" s="1">
         <v>0.35</v>
@@ -5723,7 +5785,7 @@
     <row r="27" ht="57" customHeight="1" spans="1:60">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
@@ -5777,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Z27" s="1">
         <v>3</v>
@@ -5819,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AN27" s="1">
         <v>35</v>
@@ -5855,28 +5917,28 @@
         <v>139</v>
       </c>
       <c r="AY27" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BD27" s="1">
         <v>0.35</v>
       </c>
       <c r="BH27" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" ht="57" customHeight="1" spans="1:60">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -6024,7 +6086,7 @@
     <row r="29" ht="57" customHeight="1" spans="1:60">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -6174,10 +6236,10 @@
     <row r="30" ht="57" customHeight="1" spans="1:60">
       <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D30" s="1">
         <v>20</v>
@@ -6273,7 +6335,7 @@
         <v>4</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN30" s="1">
         <v>35</v>
@@ -6310,7 +6372,7 @@
     <row r="31" ht="57" customHeight="1" spans="1:60">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -6406,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AN31" s="1">
         <v>35</v>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14280"/>
+    <workbookView windowWidth="27360" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1678,7 +1678,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/GunfireDungeon_Godot/excel/WeaponBase.xlsx
+++ b/GunfireDungeon_Godot/excel/WeaponBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -142,16 +142,7 @@
     <t>ScatteringRangeBackDelayTime</t>
   </si>
   <si>
-    <t>CameraShake</t>
-  </si>
-  <si>
-    <t>BacklashRange</t>
-  </si>
-  <si>
     <t>BacklashRegressionSpeed</t>
-  </si>
-  <si>
-    <t>UpliftAngle</t>
   </si>
   <si>
     <t>DefaultAngle</t>
@@ -326,17 +317,7 @@
     <t>开始销退散射值的延时时间</t>
   </si>
   <si>
-    <t>开火后相机抖动强度,只有玩家拾起武器开火才会抖动相机</t>
-  </si>
-  <si>
-    <t>后坐力区间 (仅用于开火后武器身抖动)
-格式为[value]或者[min,max]</t>
-  </si>
-  <si>
     <t>后坐力偏移回归回归速度</t>
-  </si>
-  <si>
-    <t>开火后武器口上抬角度</t>
   </si>
   <si>
     <t>武器默认上抬角度</t>
@@ -448,9 +429,6 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>[3,5]</t>
-  </si>
-  <si>
     <t>shell0001</t>
   </si>
   <si>
@@ -481,9 +459,6 @@
     <t>"Fire":["0001",null,null,null]</t>
   </si>
   <si>
-    <t>[2,4]</t>
-  </si>
-  <si>
     <t>reloadBegin0004</t>
   </si>
   <si>
@@ -508,9 +483,6 @@
     <t>"Fire":["0004",null,null,null]</t>
   </si>
   <si>
-    <t>[5,6]</t>
-  </si>
-  <si>
     <t>shell0002</t>
   </si>
   <si>
@@ -535,9 +507,6 @@
     <t>weapon0004</t>
   </si>
   <si>
-    <t>[-8]</t>
-  </si>
-  <si>
     <t>0004</t>
   </si>
   <si>
@@ -547,9 +516,6 @@
     <t>weapon0005</t>
   </si>
   <si>
-    <t>[5,7]</t>
-  </si>
-  <si>
     <t>shell0003</t>
   </si>
   <si>
@@ -568,9 +534,6 @@
     <t>weapon0006</t>
   </si>
   <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
     <t>reloadBegin0005</t>
   </si>
   <si>
@@ -601,9 +564,6 @@
     <t>weapon0008</t>
   </si>
   <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
     <t>reloadBegin0011</t>
   </si>
   <si>
@@ -677,9 +637,6 @@
   </si>
   <si>
     <t>weapon0016</t>
-  </si>
-  <si>
-    <t>[-2,-2]</t>
   </si>
 </sst>
 </file>
@@ -1671,14 +1628,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AG19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1718,27 +1675,24 @@
     <col min="35" max="35" width="29.2" style="1" customWidth="1"/>
     <col min="36" max="36" width="30" style="1" customWidth="1"/>
     <col min="37" max="37" width="34.4" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.775" style="1" customWidth="1"/>
-    <col min="39" max="39" width="20" style="1" customWidth="1"/>
-    <col min="40" max="40" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.975" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23.7" style="1" customWidth="1"/>
-    <col min="43" max="43" width="27.6416666666667" style="1" customWidth="1"/>
-    <col min="44" max="47" width="27.775" style="1" customWidth="1"/>
-    <col min="48" max="50" width="24.075" style="1" customWidth="1"/>
-    <col min="51" max="51" width="22.1" style="1" customWidth="1"/>
-    <col min="52" max="52" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="53" max="53" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="54" max="54" width="25.225" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.7" style="1" customWidth="1"/>
-    <col min="56" max="56" width="37.925" style="1" customWidth="1"/>
-    <col min="57" max="57" width="22.6" style="1" customWidth="1"/>
-    <col min="58" max="58" width="30.475" style="1" customWidth="1"/>
-    <col min="59" max="59" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="60" max="60" width="32.475" style="2" customWidth="1"/>
+    <col min="38" max="38" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="39" max="39" width="23.7" style="1" customWidth="1"/>
+    <col min="40" max="40" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="41" max="44" width="27.775" style="1" customWidth="1"/>
+    <col min="45" max="47" width="24.075" style="1" customWidth="1"/>
+    <col min="48" max="48" width="22.1" style="1" customWidth="1"/>
+    <col min="49" max="49" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="50" max="50" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="51" max="51" width="25.225" style="1" customWidth="1"/>
+    <col min="52" max="52" width="23.7" style="1" customWidth="1"/>
+    <col min="53" max="53" width="37.925" style="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6" style="1" customWidth="1"/>
+    <col min="55" max="55" width="30.475" style="1" customWidth="1"/>
+    <col min="56" max="56" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="57" max="57" width="32.475" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:60">
+    <row r="1" ht="31" customHeight="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,395 +1861,368 @@
       <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:60">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:63">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:57">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:60">
-      <c r="A3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="AY3" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:60">
+    <row r="4" ht="57" customHeight="1" spans="1:57">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -2319,7 +2246,7 @@
         <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>1</v>
@@ -2361,7 +2288,7 @@
         <v>0.05</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -2400,64 +2327,55 @@
         <v>0.5</v>
       </c>
       <c r="AL4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
         <v>1</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>137</v>
+      <c r="AR4" s="1">
+        <v>0</v>
       </c>
       <c r="AS4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA4" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH4" s="6"/>
+      <c r="BE4" s="6"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:60">
+    <row r="5" ht="57" customHeight="1" spans="1:57">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -2520,7 +2438,7 @@
         <v>0.05</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z5" s="1">
         <v>0.55</v>
@@ -2559,69 +2477,60 @@
         <v>0.5</v>
       </c>
       <c r="AL5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:57">
+      <c r="A6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AN5" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AS5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BH5" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" ht="57" customHeight="1" spans="1:60">
-      <c r="A6" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2645,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>1</v>
@@ -2687,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -2726,64 +2635,55 @@
         <v>0.5</v>
       </c>
       <c r="AL6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
         <v>1</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BE6" s="6"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:57">
+      <c r="A7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AS6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BH6" s="6"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:60">
-      <c r="A7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2846,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Z7" s="1">
         <v>1.2</v>
@@ -2885,69 +2785,60 @@
         <v>0.5</v>
       </c>
       <c r="AL7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
         <v>1</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>137</v>
+      <c r="AR7" s="1">
+        <v>0</v>
       </c>
       <c r="AS7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW7" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD7" s="1">
+      <c r="AZ7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BH7" s="6" t="s">
-        <v>143</v>
+      <c r="BE7" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:60">
+    <row r="8" ht="57" customHeight="1" spans="1:57">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1">
         <v>40</v>
@@ -2971,7 +2862,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>1</v>
@@ -3013,7 +2904,7 @@
         <v>0.6</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -3052,76 +2943,67 @@
         <v>0.5</v>
       </c>
       <c r="AL8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
         <v>1</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>157</v>
+      <c r="AR8" s="1">
+        <v>0.2</v>
       </c>
       <c r="AS8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AV8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD8" s="1">
+        <v>150</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA8" s="1">
         <v>0.3</v>
       </c>
-      <c r="BE8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="6"/>
+      <c r="BB8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="6"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:60">
+    <row r="9" ht="57" customHeight="1" spans="1:57">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
@@ -3184,7 +3066,7 @@
         <v>0.6</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z9" s="1">
         <v>1.4</v>
@@ -3223,79 +3105,70 @@
         <v>0.5</v>
       </c>
       <c r="AL9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
         <v>1</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>157</v>
+      <c r="AR9" s="1">
+        <v>0.2</v>
       </c>
       <c r="AS9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AV9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD9" s="1">
+        <v>150</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA9" s="1">
         <v>0.3</v>
       </c>
-      <c r="BE9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="6" t="s">
+      <c r="BB9" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:60">
+    <row r="10" ht="57" customHeight="1" spans="1:57">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3349,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -3388,41 +3261,32 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>165</v>
+        <v>24</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <v>24</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BH10" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE10" s="6"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:60">
+    <row r="11" ht="57" customHeight="1" spans="1:57">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3476,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="1">
         <v>2</v>
@@ -3515,46 +3379,37 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>165</v>
+        <v>24</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>24</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BH11" s="6" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE11" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:60">
+    <row r="12" ht="57" customHeight="1" spans="1:57">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3608,7 +3463,7 @@
         <v>0.9</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -3647,68 +3502,59 @@
         <v>0.8</v>
       </c>
       <c r="AL12" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>169</v>
+        <v>20</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
         <v>1</v>
       </c>
-      <c r="AR12" s="1" t="s">
-        <v>170</v>
+      <c r="AR12" s="1">
+        <v>0.2</v>
       </c>
       <c r="AS12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AV12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="6"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:60">
+    <row r="13" ht="57" customHeight="1" spans="1:57">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3762,7 +3608,7 @@
         <v>0.9</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z13" s="1">
         <v>2.2</v>
@@ -3801,73 +3647,64 @@
         <v>0.8</v>
       </c>
       <c r="AL13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>169</v>
+        <v>20</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>1</v>
       </c>
-      <c r="AR13" s="1" t="s">
-        <v>170</v>
+      <c r="AR13" s="1">
+        <v>0.2</v>
       </c>
       <c r="AS13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AV13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="6" t="s">
-        <v>173</v>
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:60">
+    <row r="14" ht="57" customHeight="1" spans="1:57">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -3921,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
@@ -3960,62 +3797,53 @@
         <v>0.3</v>
       </c>
       <c r="AL14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
         <v>1</v>
       </c>
-      <c r="AR14" s="1" t="s">
-        <v>137</v>
+      <c r="AR14" s="1">
+        <v>0</v>
       </c>
       <c r="AS14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH14" s="3"/>
+      <c r="BE14" s="3"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:60">
+    <row r="15" ht="57" customHeight="1" spans="1:57">
       <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4069,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Z15" s="1">
         <v>1.4</v>
@@ -4108,67 +3936,58 @@
         <v>0.3</v>
       </c>
       <c r="AL15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>1</v>
       </c>
-      <c r="AR15" s="1" t="s">
-        <v>137</v>
+      <c r="AR15" s="1">
+        <v>0</v>
       </c>
       <c r="AS15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA15" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH15" s="6" t="s">
-        <v>166</v>
+      <c r="BE15" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:60">
+    <row r="16" ht="57" customHeight="1" spans="1:57">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4222,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
@@ -4261,62 +4080,53 @@
         <v>0.3</v>
       </c>
       <c r="AL16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>1</v>
       </c>
-      <c r="AR16" s="1" t="s">
-        <v>137</v>
+      <c r="AR16" s="1">
+        <v>0</v>
       </c>
       <c r="AS16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW16" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD16" s="1">
+      <c r="AZ16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BH16" s="3"/>
+      <c r="BE16" s="3"/>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:60">
+    <row r="17" ht="57" customHeight="1" spans="1:57">
       <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4370,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Z17" s="1">
         <v>2</v>
@@ -4409,67 +4219,58 @@
         <v>0.3</v>
       </c>
       <c r="AL17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
         <v>1</v>
       </c>
-      <c r="AR17" s="1" t="s">
-        <v>137</v>
+      <c r="AR17" s="1">
+        <v>0</v>
       </c>
       <c r="AS17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD17" s="1">
+      <c r="AZ17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BH17" s="3" t="s">
-        <v>184</v>
+      <c r="BE17" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:60">
+    <row r="18" ht="57" customHeight="1" spans="1:57">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4523,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
@@ -4562,53 +4363,44 @@
         <v>0.5</v>
       </c>
       <c r="AL18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>187</v>
+        <v>25</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>25</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>13</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
         <v>1</v>
       </c>
-      <c r="AT18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD18" s="1">
+      <c r="AS18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA18" s="1">
         <v>0.8</v>
       </c>
-      <c r="BH18" s="3"/>
+      <c r="BE18" s="3"/>
     </row>
-    <row r="19" ht="57" customHeight="1" spans="1:60">
+    <row r="19" ht="57" customHeight="1" spans="1:57">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4662,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z19" s="1">
         <v>1.8</v>
@@ -4701,58 +4493,49 @@
         <v>0.5</v>
       </c>
       <c r="AL19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>187</v>
+        <v>25</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>25</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>13</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>1</v>
       </c>
-      <c r="AT19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD19" s="1">
+      <c r="AS19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BH19" s="3" t="s">
-        <v>190</v>
+      <c r="BE19" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:60">
+    <row r="20" ht="57" customHeight="1" spans="1:57">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -4806,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -4845,68 +4628,59 @@
         <v>0.5</v>
       </c>
       <c r="AL20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>187</v>
+        <v>20</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>16</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP20" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0.46</v>
       </c>
       <c r="AS20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AT20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AV20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>138</v>
+      <c r="AT20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>0.24</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB20" s="1">
+        <v>182</v>
+      </c>
+      <c r="AY20" s="1">
         <v>0.8</v>
       </c>
-      <c r="BC20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BD20" s="1">
+      <c r="AZ20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA20" s="1">
         <v>0.26</v>
       </c>
-      <c r="BH20" s="3"/>
+      <c r="BE20" s="3"/>
     </row>
-    <row r="21" ht="57" customHeight="1" spans="1:60">
+    <row r="21" ht="57" customHeight="1" spans="1:57">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -4960,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z21" s="1">
         <v>1.3</v>
@@ -4999,73 +4773,64 @@
         <v>0.5</v>
       </c>
       <c r="AL21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>187</v>
+        <v>20</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>16</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP21" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0.46</v>
       </c>
       <c r="AS21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AT21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AV21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="1" t="s">
-        <v>138</v>
+      <c r="AT21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0.24</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ21" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB21" s="1">
+        <v>182</v>
+      </c>
+      <c r="AY21" s="1">
         <v>0.8</v>
       </c>
-      <c r="BC21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BD21" s="1">
+      <c r="AZ21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BH21" s="3" t="s">
-        <v>197</v>
+      <c r="BE21" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="22" ht="57" customHeight="1" spans="1:60">
+    <row r="22" ht="57" customHeight="1" spans="1:57">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -5119,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -5158,53 +4923,44 @@
         <v>0.5</v>
       </c>
       <c r="AL22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV22" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AN22" s="1">
-        <v>25</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>16</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY22" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BD22" s="1">
+      <c r="AW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA22" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH22" s="3"/>
+      <c r="BE22" s="3"/>
     </row>
-    <row r="23" ht="57" customHeight="1" spans="1:60">
+    <row r="23" ht="57" customHeight="1" spans="1:57">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1">
         <v>40</v>
@@ -5258,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z23" s="1">
         <v>1.5</v>
@@ -5297,58 +5053,49 @@
         <v>0.5</v>
       </c>
       <c r="AL23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV23" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AN23" s="1">
-        <v>25</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>16</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY23" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BD23" s="1">
+      <c r="AW23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA23" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH23" s="3" t="s">
-        <v>202</v>
+      <c r="BE23" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="24" ht="57" customHeight="1" spans="1:60">
+    <row r="24" ht="57" customHeight="1" spans="1:57">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D24" s="1">
         <v>30</v>
@@ -5402,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
@@ -5441,56 +5188,47 @@
         <v>0.3</v>
       </c>
       <c r="AL24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
       </c>
       <c r="AN24" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
       </c>
       <c r="AS24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY24" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA24" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH24" s="3"/>
+      <c r="BE24" s="3"/>
     </row>
-    <row r="25" ht="57" customHeight="1" spans="1:60">
+    <row r="25" ht="57" customHeight="1" spans="1:57">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -5544,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Z25" s="1">
         <v>1.6</v>
@@ -5583,61 +5321,52 @@
         <v>0.3</v>
       </c>
       <c r="AL25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AP25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
       </c>
       <c r="AS25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY25" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA25" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH25" s="6" t="s">
-        <v>166</v>
+      <c r="BE25" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="26" ht="57" customHeight="1" spans="1:60">
+    <row r="26" ht="57" customHeight="1" spans="1:57">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D26" s="1">
         <v>40</v>
@@ -5691,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
@@ -5730,62 +5459,53 @@
         <v>0.3</v>
       </c>
       <c r="AL26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>1</v>
       </c>
-      <c r="AR26" s="1" t="s">
-        <v>137</v>
+      <c r="AR26" s="1">
+        <v>0</v>
       </c>
       <c r="AS26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY26" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BD26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA26" s="1">
         <v>0.35</v>
       </c>
-      <c r="BH26" s="3"/>
+      <c r="BE26" s="3"/>
     </row>
-    <row r="27" ht="57" customHeight="1" spans="1:60">
+    <row r="27" ht="57" customHeight="1" spans="1:57">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
@@ -5839,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Z27" s="1">
         <v>3</v>
@@ -5878,67 +5598,58 @@
         <v>0.3</v>
       </c>
       <c r="AL27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>176</v>
+        <v>35</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
       </c>
       <c r="AN27" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>1</v>
       </c>
-      <c r="AR27" s="1" t="s">
-        <v>137</v>
+      <c r="AR27" s="1">
+        <v>0</v>
       </c>
       <c r="AS27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY27" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA27" s="1">
         <v>0.35</v>
       </c>
-      <c r="BH27" s="3" t="s">
-        <v>184</v>
+      <c r="BE27" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="28" ht="57" customHeight="1" spans="1:60">
+    <row r="28" ht="57" customHeight="1" spans="1:57">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -5992,7 +5703,7 @@
         <v>0.05</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -6031,62 +5742,53 @@
         <v>0.5</v>
       </c>
       <c r="AL28" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
       </c>
       <c r="AN28" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP28" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0</v>
       </c>
       <c r="AS28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AT28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD28" s="1">
+      <c r="AT28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA28" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH28" s="6"/>
+      <c r="BE28" s="6"/>
     </row>
-    <row r="29" ht="57" customHeight="1" spans="1:60">
+    <row r="29" ht="57" customHeight="1" spans="1:57">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -6140,7 +5842,7 @@
         <v>0.05</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z29" s="1">
         <v>0.45</v>
@@ -6179,67 +5881,58 @@
         <v>0.5</v>
       </c>
       <c r="AL29" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP29" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0</v>
       </c>
       <c r="AS29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AT29" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ29" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD29" s="1">
+      <c r="AT29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA29" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH29" s="6" t="s">
-        <v>131</v>
+      <c r="BE29" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="30" ht="57" customHeight="1" spans="1:60">
+    <row r="30" ht="57" customHeight="1" spans="1:57">
       <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D30" s="1">
         <v>20</v>
@@ -6293,7 +5986,7 @@
         <v>0.05</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -6332,47 +6025,38 @@
         <v>0.4</v>
       </c>
       <c r="AL30" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH30" s="6"/>
+      <c r="BE30" s="6"/>
     </row>
-    <row r="31" ht="57" customHeight="1" spans="1:60">
+    <row r="31" ht="57" customHeight="1" spans="1:57">
       <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -6426,7 +6110,7 @@
         <v>0.05</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z31" s="1">
         <v>0.5</v>
@@ -6465,43 +6149,34 @@
         <v>0.4</v>
       </c>
       <c r="AL31" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>35</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH31" s="6" t="s">
-        <v>131</v>
+      <c r="BE31" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
